--- a/Crawling/music/crawled_data/live_flo/live_flo_20220501_110005.xlsx
+++ b/Crawling/music/crawled_data/live_flo/live_flo_20220501_110005.xlsx
@@ -2036,10 +2036,6 @@
       <c r="D59" t="s">
         <v>141</v>
       </c>
-      <c r="E59">
-        <f/>
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">

--- a/Crawling/music/crawled_data/live_flo/live_flo_20220501_110005.xlsx
+++ b/Crawling/music/crawled_data/live_flo/live_flo_20220501_110005.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-05-01</t>
